--- a/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6923812-8C82-4270-91CC-0A0E7E1D2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDA1613-5902-43F4-B2A8-9408285919A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53C814FB-DE0E-414D-B39E-78965CAD863E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8072661-FAA2-4767-95B0-3C65816CEFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>47,99%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>40,52%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>59,48%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>58,08%</t>
   </si>
   <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>26,89%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>43,63%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>69,8%</t>
   </si>
   <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>81,93%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
@@ -530,217 +530,211 @@
     <t>47,03%</t>
   </si>
   <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>50,66%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>47,65%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>38,41%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>66,11%</t>
   </si>
   <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
@@ -749,16 +743,16 @@
     <t>50,79%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>58,2%</t>
+    <t>58,38%</t>
   </si>
   <si>
     <t>63,8%</t>
@@ -767,19 +761,19 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
   </si>
   <si>
     <t>49,21%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>39,1%</t>
@@ -788,172 +782,178 @@
     <t>36,2%</t>
   </si>
   <si>
-    <t>41,8%</t>
+    <t>41,62%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>66,97%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>74,05%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>30,44%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>69,56%</t>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>60,96%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>64,01%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32623B2-EB0F-4AD7-A5D4-E7BFF001C25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9830D7A-5354-4A64-8EFC-9DD04689C4A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DAB0D8-5A72-400B-A70F-1BB8483CCE3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2E3DC6-CF61-47C1-90B2-8446A76ED83F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2318,7 @@
         <v>1462</v>
       </c>
       <c r="N5" s="7">
-        <v>1573678</v>
+        <v>1573679</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2369,7 +2369,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310444</v>
+        <v>2310445</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78066516-C171-4209-BF1A-9A3AFCB07966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AB1E21-9710-4B15-93CD-F3A117AB41D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,10 +2994,10 @@
         <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>491</v>
@@ -3006,13 +3006,13 @@
         <v>560857</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>850</v>
@@ -3021,13 +3021,13 @@
         <v>915635</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>399569</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -3057,13 +3057,13 @@
         <v>433803</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>804</v>
@@ -3072,13 +3072,13 @@
         <v>833372</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>664277</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>752</v>
@@ -3161,13 +3161,13 @@
         <v>792592</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1370</v>
@@ -3176,13 +3176,13 @@
         <v>1456869</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3197,13 @@
         <v>1412108</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1156</v>
@@ -3212,13 +3212,13 @@
         <v>1195708</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2490</v>
@@ -3227,13 +3227,13 @@
         <v>2607816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3301,13 @@
         <v>125524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3316,13 +3316,13 @@
         <v>155886</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3331,13 +3331,13 @@
         <v>281410</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3352,13 @@
         <v>421362</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -3367,13 +3367,13 @@
         <v>393254</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>759</v>
@@ -3382,13 +3382,13 @@
         <v>814616</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3456,13 @@
         <v>1144579</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1391</v>
@@ -3471,13 +3471,13 @@
         <v>1509335</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>2488</v>
@@ -3486,13 +3486,13 @@
         <v>2653914</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3507,13 @@
         <v>2233039</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1935</v>
@@ -3522,13 +3522,13 @@
         <v>2022765</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4053</v>
@@ -3537,13 +3537,13 @@
         <v>4255804</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42767524-3039-43BB-9DC4-9B05CF2BA9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627156D4-04D6-4705-AC83-674C6179AA3B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3742,13 @@
         <v>273202</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>840</v>
@@ -3757,13 +3757,13 @@
         <v>504938</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1180</v>
@@ -3772,13 +3772,13 @@
         <v>778139</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3793,13 @@
         <v>264651</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>580</v>
@@ -3808,13 +3808,13 @@
         <v>324128</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>927</v>
@@ -3823,13 +3823,13 @@
         <v>588779</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3897,13 @@
         <v>665019</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1061</v>
@@ -3912,13 +3912,13 @@
         <v>789412</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1719</v>
@@ -3927,13 +3927,13 @@
         <v>1454431</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3948,13 @@
         <v>1491923</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1856</v>
@@ -3963,13 +3963,13 @@
         <v>1457562</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>3186</v>
@@ -3978,13 +3978,13 @@
         <v>2949485</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4052,13 @@
         <v>157519</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
@@ -4067,13 +4067,13 @@
         <v>185136</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>417</v>
@@ -4082,13 +4082,13 @@
         <v>342655</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4103,13 @@
         <v>514401</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>742</v>
@@ -4118,13 +4118,13 @@
         <v>528348</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1266</v>
@@ -4133,13 +4133,13 @@
         <v>1042749</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4207,13 @@
         <v>1095740</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>2162</v>
@@ -4222,13 +4222,13 @@
         <v>1479486</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>3316</v>
@@ -4237,13 +4237,13 @@
         <v>2575225</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,10 +4258,10 @@
         <v>2270974</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>298</v>

--- a/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDA1613-5902-43F4-B2A8-9408285919A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC53992E-7D57-46B1-8A23-07940760D904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8072661-FAA2-4767-95B0-3C65816CEFBF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{87F2112E-929E-49AA-8776-B157694447F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -740,220 +740,220 @@
     <t>Población que no realiza actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9830D7A-5354-4A64-8EFC-9DD04689C4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A5946-7E86-4D77-8030-8D4ECCA02847}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2E3DC6-CF61-47C1-90B2-8446A76ED83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BBE161-39C7-4A86-8CD8-1CF145C8DB16}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,7 +2628,7 @@
         <v>711</v>
       </c>
       <c r="N11" s="7">
-        <v>791237</v>
+        <v>791238</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2679,7 +2679,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AB1E21-9710-4B15-93CD-F3A117AB41D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4108FAA6-7A77-473D-8D86-4D7F6049E4F2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,7 +3379,7 @@
         <v>759</v>
       </c>
       <c r="N11" s="7">
-        <v>814616</v>
+        <v>814617</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>211</v>
@@ -3430,7 +3430,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627156D4-04D6-4705-AC83-674C6179AA3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C169265C-2E90-4AA6-88FA-D50542FEEC91}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3739,7 @@
         <v>340</v>
       </c>
       <c r="D4" s="7">
-        <v>273202</v>
+        <v>262206</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3754,7 @@
         <v>840</v>
       </c>
       <c r="I4" s="7">
-        <v>504938</v>
+        <v>455086</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,7 +3769,7 @@
         <v>1180</v>
       </c>
       <c r="N4" s="7">
-        <v>778139</v>
+        <v>717292</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="D5" s="7">
-        <v>264651</v>
+        <v>249225</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3805,7 +3805,7 @@
         <v>580</v>
       </c>
       <c r="I5" s="7">
-        <v>324128</v>
+        <v>294507</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3820,7 +3820,7 @@
         <v>927</v>
       </c>
       <c r="N5" s="7">
-        <v>588779</v>
+        <v>543732</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3841,7 +3841,7 @@
         <v>687</v>
       </c>
       <c r="D6" s="7">
-        <v>537853</v>
+        <v>511431</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3856,7 @@
         <v>1420</v>
       </c>
       <c r="I6" s="7">
-        <v>829066</v>
+        <v>749593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3871,7 @@
         <v>2107</v>
       </c>
       <c r="N6" s="7">
-        <v>1366918</v>
+        <v>1261024</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3894,7 @@
         <v>658</v>
       </c>
       <c r="D7" s="7">
-        <v>665019</v>
+        <v>647976</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3909,7 +3909,7 @@
         <v>1061</v>
       </c>
       <c r="I7" s="7">
-        <v>789412</v>
+        <v>756204</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3924,7 +3924,7 @@
         <v>1719</v>
       </c>
       <c r="N7" s="7">
-        <v>1454431</v>
+        <v>1404179</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3945,7 +3945,7 @@
         <v>1330</v>
       </c>
       <c r="D8" s="7">
-        <v>1491923</v>
+        <v>1637638</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3960,7 +3960,7 @@
         <v>1856</v>
       </c>
       <c r="I8" s="7">
-        <v>1457562</v>
+        <v>1479385</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3975,7 +3975,7 @@
         <v>3186</v>
       </c>
       <c r="N8" s="7">
-        <v>2949485</v>
+        <v>3117023</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3996,7 +3996,7 @@
         <v>1988</v>
       </c>
       <c r="D9" s="7">
-        <v>2156942</v>
+        <v>2285614</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4011,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2246974</v>
+        <v>2235589</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4026,7 @@
         <v>4905</v>
       </c>
       <c r="N9" s="7">
-        <v>4403916</v>
+        <v>4521202</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4049,7 @@
         <v>156</v>
       </c>
       <c r="D10" s="7">
-        <v>157519</v>
+        <v>151195</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4064,7 +4064,7 @@
         <v>261</v>
       </c>
       <c r="I10" s="7">
-        <v>185136</v>
+        <v>172655</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4079,7 +4079,7 @@
         <v>417</v>
       </c>
       <c r="N10" s="7">
-        <v>342655</v>
+        <v>323851</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4100,7 +4100,7 @@
         <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>514401</v>
+        <v>494379</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4115,7 +4115,7 @@
         <v>742</v>
       </c>
       <c r="I11" s="7">
-        <v>528348</v>
+        <v>487431</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4130,7 +4130,7 @@
         <v>1266</v>
       </c>
       <c r="N11" s="7">
-        <v>1042749</v>
+        <v>981809</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4151,7 +4151,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671920</v>
+        <v>645574</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4166,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713484</v>
+        <v>660086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4181,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1385404</v>
+        <v>1305660</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4204,7 @@
         <v>1154</v>
       </c>
       <c r="D13" s="7">
-        <v>1095740</v>
+        <v>1061378</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4219,7 +4219,7 @@
         <v>2162</v>
       </c>
       <c r="I13" s="7">
-        <v>1479486</v>
+        <v>1383945</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4234,7 +4234,7 @@
         <v>3316</v>
       </c>
       <c r="N13" s="7">
-        <v>2575225</v>
+        <v>2445323</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>293</v>
@@ -4255,7 +4255,7 @@
         <v>2201</v>
       </c>
       <c r="D14" s="7">
-        <v>2270974</v>
+        <v>2381240</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4270,7 +4270,7 @@
         <v>3178</v>
       </c>
       <c r="I14" s="7">
-        <v>2310038</v>
+        <v>2261323</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>299</v>
@@ -4285,7 +4285,7 @@
         <v>5379</v>
       </c>
       <c r="N14" s="7">
-        <v>4581013</v>
+        <v>4642563</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4306,7 +4306,7 @@
         <v>3355</v>
       </c>
       <c r="D15" s="7">
-        <v>3366714</v>
+        <v>3442618</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>5340</v>
       </c>
       <c r="I15" s="7">
-        <v>3789524</v>
+        <v>3645268</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>8695</v>
       </c>
       <c r="N15" s="7">
-        <v>7156238</v>
+        <v>7087886</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
